--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H2">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I2">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J2">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>148.067422587639</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N2">
-        <v>148.067422587639</v>
+        <v>460.154182</v>
       </c>
       <c r="O2">
-        <v>0.9612238938119871</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P2">
-        <v>0.9612238938119871</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q2">
-        <v>4947.541855593316</v>
+        <v>6194.995267555189</v>
       </c>
       <c r="R2">
-        <v>4947.541855593316</v>
+        <v>55754.95740799669</v>
       </c>
       <c r="S2">
-        <v>0.3472408928616197</v>
+        <v>0.3700190320450352</v>
       </c>
       <c r="T2">
-        <v>0.3472408928616197</v>
+        <v>0.4445443005245467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H3">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I3">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J3">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.99674646997622</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N3">
-        <v>2.99674646997622</v>
+        <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.01945427468309524</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P3">
-        <v>0.01945427468309524</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q3">
-        <v>100.133630556264</v>
+        <v>2.546959324814222</v>
       </c>
       <c r="R3">
-        <v>100.133630556264</v>
+        <v>22.922633923328</v>
       </c>
       <c r="S3">
-        <v>0.007027831657558149</v>
+        <v>0.0001521265769098409</v>
       </c>
       <c r="T3">
-        <v>0.007027831657558149</v>
+        <v>0.0001827662819120828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H4">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I4">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J4">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91615214872979</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N4">
-        <v>1.91615214872979</v>
+        <v>17.168938</v>
       </c>
       <c r="O4">
-        <v>0.01243927392906491</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P4">
-        <v>0.01243927392906491</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q4">
-        <v>64.02652786040416</v>
+        <v>231.1431555324829</v>
       </c>
       <c r="R4">
-        <v>64.02652786040416</v>
+        <v>2080.288399792346</v>
       </c>
       <c r="S4">
-        <v>0.004493671675751785</v>
+        <v>0.01380588087320963</v>
       </c>
       <c r="T4">
-        <v>0.004493671675751785</v>
+        <v>0.01658651346117573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H5">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I5">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J5">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06019270601575</v>
+        <v>1.951202</v>
       </c>
       <c r="N5">
-        <v>1.06019270601575</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O5">
-        <v>0.006882557575852624</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P5">
-        <v>0.006882557575852624</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q5">
-        <v>35.42540078255915</v>
+        <v>78.80632815401133</v>
       </c>
       <c r="R5">
-        <v>35.42540078255915</v>
+        <v>709.2569533861019</v>
       </c>
       <c r="S5">
-        <v>0.002486315054375905</v>
+        <v>0.004706999764033461</v>
       </c>
       <c r="T5">
-        <v>0.002486315054375905</v>
+        <v>0.005655033218444789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.71710162142608</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H6">
-        <v>8.71710162142608</v>
+        <v>121.165817</v>
       </c>
       <c r="I6">
-        <v>0.09424285952162893</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J6">
-        <v>0.09424285952162893</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.067422587639</v>
+        <v>1.490433</v>
       </c>
       <c r="N6">
-        <v>148.067422587639</v>
+        <v>2.980866</v>
       </c>
       <c r="O6">
-        <v>0.9612238938119871</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P6">
-        <v>0.9612238938119871</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q6">
-        <v>1290.718769519088</v>
+        <v>60.19651070958701</v>
       </c>
       <c r="R6">
-        <v>1290.718769519088</v>
+        <v>361.179064257522</v>
       </c>
       <c r="S6">
-        <v>0.09058848839335627</v>
+        <v>0.003595459506144256</v>
       </c>
       <c r="T6">
-        <v>0.09058848839335627</v>
+        <v>0.002879745621712949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H7">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J7">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99674646997622</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N7">
-        <v>2.99674646997622</v>
+        <v>460.154182</v>
       </c>
       <c r="O7">
-        <v>0.01945427468309524</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P7">
-        <v>0.01945427468309524</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q7">
-        <v>26.12294351243259</v>
+        <v>1460.760473323849</v>
       </c>
       <c r="R7">
-        <v>26.12294351243259</v>
+        <v>13146.84425991464</v>
       </c>
       <c r="S7">
-        <v>0.001833426476054127</v>
+        <v>0.08724932837636311</v>
       </c>
       <c r="T7">
-        <v>0.001833426476054127</v>
+        <v>0.1048221531739647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H8">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J8">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.91615214872979</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N8">
-        <v>1.91615214872979</v>
+        <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.01243927392906491</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P8">
-        <v>0.01243927392906491</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q8">
-        <v>16.70329300259152</v>
+        <v>0.6005650284088889</v>
       </c>
       <c r="R8">
-        <v>16.70329300259152</v>
+        <v>5.40508525568</v>
       </c>
       <c r="S8">
-        <v>0.001172312745447926</v>
+        <v>3.587097017745647E-05</v>
       </c>
       <c r="T8">
-        <v>0.001172312745447926</v>
+        <v>4.309571661366175E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.71710162142608</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H9">
-        <v>8.71710162142608</v>
+        <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09424285952162893</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J9">
-        <v>0.09424285952162893</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06019270601575</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N9">
-        <v>1.06019270601575</v>
+        <v>17.168938</v>
       </c>
       <c r="O9">
-        <v>0.006882557575852624</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P9">
-        <v>0.006882557575852624</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q9">
-        <v>9.241807556633999</v>
+        <v>54.50283183419555</v>
       </c>
       <c r="R9">
-        <v>9.241807556633999</v>
+        <v>490.52548650776</v>
       </c>
       <c r="S9">
-        <v>0.0006486319067706018</v>
+        <v>0.003255383451965277</v>
       </c>
       <c r="T9">
-        <v>0.0006486319067706018</v>
+        <v>0.003911047903657436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.389610839068045</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H10">
-        <v>0.389610839068045</v>
+        <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.004212184412780406</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J10">
-        <v>0.004212184412780406</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>148.067422587639</v>
+        <v>1.951202</v>
       </c>
       <c r="N10">
-        <v>148.067422587639</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O10">
-        <v>0.9612238938119871</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P10">
-        <v>0.9612238938119871</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q10">
-        <v>57.68867275301282</v>
+        <v>18.58228525501333</v>
       </c>
       <c r="R10">
-        <v>57.68867275301282</v>
+        <v>167.24056729512</v>
       </c>
       <c r="S10">
-        <v>0.004048852302706941</v>
+        <v>0.001109895795926612</v>
       </c>
       <c r="T10">
-        <v>0.004048852302706941</v>
+        <v>0.001333439114005572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.389610839068045</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H11">
-        <v>0.389610839068045</v>
+        <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.004212184412780406</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J11">
-        <v>0.004212184412780406</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99674646997622</v>
+        <v>1.490433</v>
       </c>
       <c r="N11">
-        <v>2.99674646997622</v>
+        <v>2.980866</v>
       </c>
       <c r="O11">
-        <v>0.01945427468309524</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P11">
-        <v>0.01945427468309524</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q11">
-        <v>1.167564906641637</v>
+        <v>14.19414861172</v>
       </c>
       <c r="R11">
-        <v>1.167564906641637</v>
+        <v>85.16489167032002</v>
       </c>
       <c r="S11">
-        <v>8.194499258208224E-05</v>
+        <v>0.0008477980859030941</v>
       </c>
       <c r="T11">
-        <v>8.194499258208224E-05</v>
+        <v>0.0006790349944990035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H12">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I12">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J12">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91615214872979</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N12">
-        <v>1.91615214872979</v>
+        <v>460.154182</v>
       </c>
       <c r="O12">
-        <v>0.01243927392906491</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P12">
-        <v>0.01243927392906491</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q12">
-        <v>0.7465536464486509</v>
+        <v>131.7540040588471</v>
       </c>
       <c r="R12">
-        <v>0.7465536464486509</v>
+        <v>1185.786036529624</v>
       </c>
       <c r="S12">
-        <v>5.23965157503129E-05</v>
+        <v>0.007869495769470002</v>
       </c>
       <c r="T12">
-        <v>5.23965157503129E-05</v>
+        <v>0.009454485281433139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.389610839068045</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H13">
-        <v>0.389610839068045</v>
+        <v>2.576932</v>
       </c>
       <c r="I13">
-        <v>0.004212184412780406</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J13">
-        <v>0.004212184412780406</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.06019270601575</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N13">
-        <v>1.06019270601575</v>
+        <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.006882557575852624</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P13">
-        <v>0.006882557575852624</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q13">
-        <v>0.4130625697646176</v>
+        <v>0.0541682559431111</v>
       </c>
       <c r="R13">
-        <v>0.4130625697646176</v>
+        <v>0.487514303488</v>
       </c>
       <c r="S13">
-        <v>2.899060174107012E-05</v>
+        <v>3.235399667956104E-06</v>
       </c>
       <c r="T13">
-        <v>2.899060174107012E-05</v>
+        <v>3.887039200010241E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.9753222222374</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H14">
-        <v>49.9753222222374</v>
+        <v>2.576932</v>
       </c>
       <c r="I14">
-        <v>0.540296244816285</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J14">
-        <v>0.540296244816285</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>148.067422587639</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N14">
-        <v>148.067422587639</v>
+        <v>17.168938</v>
       </c>
       <c r="O14">
-        <v>0.9612238938119871</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P14">
-        <v>0.9612238938119871</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q14">
-        <v>7399.717154433451</v>
+        <v>4.915909526468443</v>
       </c>
       <c r="R14">
-        <v>7399.717154433451</v>
+        <v>44.24318573821599</v>
       </c>
       <c r="S14">
-        <v>0.5193456602543042</v>
+        <v>0.0002936208997820055</v>
       </c>
       <c r="T14">
-        <v>0.5193456602543042</v>
+        <v>0.0003527588751086002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.9753222222374</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H15">
-        <v>49.9753222222374</v>
+        <v>2.576932</v>
       </c>
       <c r="I15">
-        <v>0.540296244816285</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J15">
-        <v>0.540296244816285</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.99674646997622</v>
+        <v>1.951202</v>
       </c>
       <c r="N15">
-        <v>2.99674646997622</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O15">
-        <v>0.01945427468309524</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P15">
-        <v>0.01945427468309524</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q15">
-        <v>149.7633704554141</v>
+        <v>1.676038290754666</v>
       </c>
       <c r="R15">
-        <v>149.7633704554141</v>
+        <v>15.084344616792</v>
       </c>
       <c r="S15">
-        <v>0.01051107155690088</v>
+        <v>0.0001001075931830697</v>
       </c>
       <c r="T15">
-        <v>0.01051107155690088</v>
+        <v>0.0001202701918947434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.9753222222374</v>
+        <v>0.8589773333333333</v>
       </c>
       <c r="H16">
-        <v>49.9753222222374</v>
+        <v>2.576932</v>
       </c>
       <c r="I16">
-        <v>0.540296244816285</v>
+        <v>0.008342927224370099</v>
       </c>
       <c r="J16">
-        <v>0.540296244816285</v>
+        <v>0.009992647280481435</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.91615214872979</v>
+        <v>1.490433</v>
       </c>
       <c r="N16">
-        <v>1.91615214872979</v>
+        <v>2.980866</v>
       </c>
       <c r="O16">
-        <v>0.01243927392906491</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P16">
-        <v>0.01243927392906491</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q16">
-        <v>95.76032105960381</v>
+        <v>1.280248163852</v>
       </c>
       <c r="R16">
-        <v>95.76032105960381</v>
+        <v>7.681488983112</v>
       </c>
       <c r="S16">
-        <v>0.006720892992114887</v>
+        <v>7.646756226706521E-05</v>
       </c>
       <c r="T16">
-        <v>0.006720892992114887</v>
+        <v>6.124589284494318E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.582691</v>
+      </c>
+      <c r="I17">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J17">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>153.3847273333333</v>
+      </c>
+      <c r="N17">
+        <v>460.154182</v>
+      </c>
+      <c r="O17">
+        <v>0.9432535557163702</v>
+      </c>
+      <c r="P17">
+        <v>0.9461442014370421</v>
+      </c>
+      <c r="Q17">
+        <v>183.1766940515291</v>
+      </c>
+      <c r="R17">
+        <v>1648.590246463762</v>
+      </c>
+      <c r="S17">
+        <v>0.01094090634437317</v>
+      </c>
+      <c r="T17">
+        <v>0.01314450646249997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.582691</v>
+      </c>
+      <c r="I18">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J18">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.189184</v>
+      </c>
+      <c r="O18">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P18">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q18">
+        <v>0.0753097571271111</v>
+      </c>
+      <c r="R18">
+        <v>0.677787814144</v>
+      </c>
+      <c r="S18">
+        <v>4.498154111862217E-06</v>
+      </c>
+      <c r="T18">
+        <v>5.404124112907865E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.582691</v>
+      </c>
+      <c r="I19">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J19">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N19">
+        <v>17.168938</v>
+      </c>
+      <c r="O19">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P19">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q19">
+        <v>6.834555516906443</v>
+      </c>
+      <c r="R19">
+        <v>61.51099965215799</v>
+      </c>
+      <c r="S19">
+        <v>0.0004082191361902034</v>
+      </c>
+      <c r="T19">
+        <v>0.0004904382603117607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.582691</v>
+      </c>
+      <c r="I20">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J20">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.951202</v>
+      </c>
+      <c r="N20">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P20">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q20">
+        <v>2.330184614860666</v>
+      </c>
+      <c r="R20">
+        <v>20.971661533746</v>
+      </c>
+      <c r="S20">
+        <v>0.0001391789046543119</v>
+      </c>
+      <c r="T20">
+        <v>0.0001672108282521892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.582691</v>
+      </c>
+      <c r="I21">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J21">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.490433</v>
+      </c>
+      <c r="N21">
+        <v>2.980866</v>
+      </c>
+      <c r="O21">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P21">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q21">
+        <v>1.779920298401</v>
+      </c>
+      <c r="R21">
+        <v>10.679521790406</v>
+      </c>
+      <c r="S21">
+        <v>0.0001063123307584966</v>
+      </c>
+      <c r="T21">
+        <v>8.514974748365201E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.993427</v>
+      </c>
+      <c r="H22">
+        <v>101.986854</v>
+      </c>
+      <c r="I22">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J22">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>153.3847273333333</v>
+      </c>
+      <c r="N22">
+        <v>460.154182</v>
+      </c>
+      <c r="O22">
+        <v>0.9432535557163702</v>
+      </c>
+      <c r="P22">
+        <v>0.9461442014370421</v>
+      </c>
+      <c r="Q22">
+        <v>7821.612896187237</v>
+      </c>
+      <c r="R22">
+        <v>46929.67737712342</v>
+      </c>
+      <c r="S22">
+        <v>0.4671747931811286</v>
+      </c>
+      <c r="T22">
+        <v>0.3741787559945977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.993427</v>
+      </c>
+      <c r="H23">
+        <v>101.986854</v>
+      </c>
+      <c r="I23">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J23">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.189184</v>
+      </c>
+      <c r="O23">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P23">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q23">
+        <v>3.215713497856</v>
+      </c>
+      <c r="R23">
+        <v>19.294280987136</v>
+      </c>
+      <c r="S23">
+        <v>0.0001920703962507476</v>
+      </c>
+      <c r="T23">
+        <v>0.0001538367715499366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.993427</v>
+      </c>
+      <c r="H24">
+        <v>101.986854</v>
+      </c>
+      <c r="I24">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J24">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N24">
+        <v>17.168938</v>
+      </c>
+      <c r="O24">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P24">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q24">
+        <v>291.8343288568419</v>
+      </c>
+      <c r="R24">
+        <v>1751.005973141052</v>
+      </c>
+      <c r="S24">
+        <v>0.01743088593572669</v>
+      </c>
+      <c r="T24">
+        <v>0.01396108546632392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="H17">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="I17">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="J17">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="N17">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="O17">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="P17">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="Q17">
-        <v>52.98347210080292</v>
-      </c>
-      <c r="R17">
-        <v>52.98347210080292</v>
-      </c>
-      <c r="S17">
-        <v>0.003718620012965047</v>
-      </c>
-      <c r="T17">
-        <v>0.003718620012965047</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.993427</v>
+      </c>
+      <c r="H25">
+        <v>101.986854</v>
+      </c>
+      <c r="I25">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J25">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.951202</v>
+      </c>
+      <c r="N25">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P25">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q25">
+        <v>99.49847674925398</v>
+      </c>
+      <c r="R25">
+        <v>596.9908604955239</v>
+      </c>
+      <c r="S25">
+        <v>0.005942914960650762</v>
+      </c>
+      <c r="T25">
+        <v>0.004759915473641207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.993427</v>
+      </c>
+      <c r="H26">
+        <v>101.986854</v>
+      </c>
+      <c r="I26">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J26">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.490433</v>
+      </c>
+      <c r="N26">
+        <v>2.980866</v>
+      </c>
+      <c r="O26">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P26">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q26">
+        <v>76.002286383891</v>
+      </c>
+      <c r="R26">
+        <v>304.009145535564</v>
+      </c>
+      <c r="S26">
+        <v>0.00453951798611707</v>
+      </c>
+      <c r="T26">
+        <v>0.002423919580212774</v>
       </c>
     </row>
   </sheetData>
